--- a/Data Collection/Persons/Carina Kontio/Carina_Kontio_all.xlsx
+++ b/Data Collection/Persons/Carina Kontio/Carina_Kontio_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Carina Kontio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Carina Kontio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6994E0C0-2955-4CD7-990F-CF8B273170B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC138C-52C0-C14E-A677-331AB0AD3040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -329,6 +329,9 @@
 „Man sollte einfach seine Ängste Ängste sein lassen und mutig sein, und wenn es nicht klappt, dann klappt es eben nicht.
 Und dann hat man einen Plan B in der Tasche und macht wieder etwas anderes.“Wenn man auf dem Mond oder dem Mars war, kann man die Erde auch wieder ganz anders schätzen.
 (Foto: OeWF Gregor Kuntscher) Carmen Köhler beim Test einer Mars-MissionAußerdem wollten wir von der Analog-Astronautin wissen:Was ist eine Analog-Astronautin, und wie wird man das?</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -399,13 +402,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -687,15 +691,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +724,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -749,8 +756,11 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -778,8 +788,11 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -807,8 +820,11 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -833,8 +849,11 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -859,8 +878,11 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -885,8 +907,11 @@
       <c r="I7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -911,8 +936,11 @@
       <c r="I8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -937,8 +965,11 @@
       <c r="I9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -963,8 +994,11 @@
       <c r="I10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -989,8 +1023,11 @@
       <c r="I11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1015,8 +1052,11 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1041,8 +1081,11 @@
       <c r="I13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1067,8 +1110,11 @@
       <c r="I14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1093,8 +1139,11 @@
       <c r="I15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1119,8 +1168,11 @@
       <c r="I16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1144,6 +1196,9 @@
       </c>
       <c r="I17" t="s">
         <v>82</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
